--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nrg2</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.473169821409468</v>
+        <v>0.03199733333333333</v>
       </c>
       <c r="H2">
-        <v>0.473169821409468</v>
+        <v>0.09599199999999999</v>
       </c>
       <c r="I2">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500492</v>
       </c>
       <c r="J2">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500493</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.380637249405752</v>
+        <v>0.02516733333333333</v>
       </c>
       <c r="N2">
-        <v>0.380637249405752</v>
+        <v>0.075502</v>
       </c>
       <c r="O2">
-        <v>0.08172695810995302</v>
+        <v>0.004888204543993421</v>
       </c>
       <c r="P2">
-        <v>0.08172695810995302</v>
+        <v>0.00488820454399342</v>
       </c>
       <c r="Q2">
-        <v>0.1801060593231108</v>
+        <v>0.0008052875537777777</v>
       </c>
       <c r="R2">
-        <v>0.1801060593231108</v>
+        <v>0.007247587983999999</v>
       </c>
       <c r="S2">
-        <v>0.04144204586310449</v>
+        <v>0.0001291651381550813</v>
       </c>
       <c r="T2">
-        <v>0.04144204586310449</v>
+        <v>0.0001291651381550813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.473169821409468</v>
+        <v>0.03199733333333333</v>
       </c>
       <c r="H3">
-        <v>0.473169821409468</v>
+        <v>0.09599199999999999</v>
       </c>
       <c r="I3">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500492</v>
       </c>
       <c r="J3">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.61194720363087</v>
+        <v>0.3823143333333334</v>
       </c>
       <c r="N3">
-        <v>0.61194720363087</v>
+        <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.1313917215267877</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="P3">
-        <v>0.1313917215267877</v>
+        <v>0.07425620492571648</v>
       </c>
       <c r="Q3">
-        <v>0.2895549490540421</v>
+        <v>0.01223303916177778</v>
       </c>
       <c r="R3">
-        <v>0.2895549490540421</v>
+        <v>0.110097352456</v>
       </c>
       <c r="S3">
-        <v>0.066626017601434</v>
+        <v>0.001962134129572772</v>
       </c>
       <c r="T3">
-        <v>0.066626017601434</v>
+        <v>0.001962134129572773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.473169821409468</v>
+        <v>0.03199733333333333</v>
       </c>
       <c r="H4">
-        <v>0.473169821409468</v>
+        <v>0.09599199999999999</v>
       </c>
       <c r="I4">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500492</v>
       </c>
       <c r="J4">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.498027648015566</v>
+        <v>0.7297406666666667</v>
       </c>
       <c r="N4">
-        <v>0.498027648015566</v>
+        <v>2.189222</v>
       </c>
       <c r="O4">
-        <v>0.1069319536921589</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="P4">
-        <v>0.1069319536921589</v>
+        <v>0.1417361782232307</v>
       </c>
       <c r="Q4">
-        <v>0.2356516532685027</v>
+        <v>0.02334975535822222</v>
       </c>
       <c r="R4">
-        <v>0.2356516532685027</v>
+        <v>0.210147798224</v>
       </c>
       <c r="S4">
-        <v>0.05422297650158266</v>
+        <v>0.003745214194089474</v>
       </c>
       <c r="T4">
-        <v>0.05422297650158266</v>
+        <v>0.003745214194089474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.473169821409468</v>
+        <v>0.03199733333333333</v>
       </c>
       <c r="H5">
-        <v>0.473169821409468</v>
+        <v>0.09599199999999999</v>
       </c>
       <c r="I5">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500492</v>
       </c>
       <c r="J5">
-        <v>0.5070792651715924</v>
+        <v>0.02642384069500493</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.16681377418538</v>
+        <v>0.6020886666666666</v>
       </c>
       <c r="N5">
-        <v>3.16681377418538</v>
+        <v>1.806266</v>
       </c>
       <c r="O5">
-        <v>0.6799493666711005</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="P5">
-        <v>0.6799493666711005</v>
+        <v>0.1169425666718871</v>
       </c>
       <c r="Q5">
-        <v>1.49844070796834</v>
+        <v>0.01926523176355555</v>
       </c>
       <c r="R5">
-        <v>1.49844070796834</v>
+        <v>0.173387085872</v>
       </c>
       <c r="S5">
-        <v>0.3447882252054713</v>
+        <v>0.003090071752202936</v>
       </c>
       <c r="T5">
-        <v>0.3447882252054713</v>
+        <v>0.003090071752202937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.459958101400293</v>
+        <v>0.03199733333333333</v>
       </c>
       <c r="H6">
-        <v>0.459958101400293</v>
+        <v>0.09599199999999999</v>
       </c>
       <c r="I6">
-        <v>0.4929207348284076</v>
+        <v>0.02642384069500492</v>
       </c>
       <c r="J6">
-        <v>0.4929207348284076</v>
+        <v>0.02642384069500493</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.380637249405752</v>
+        <v>0.1514643333333333</v>
       </c>
       <c r="N6">
-        <v>0.380637249405752</v>
+        <v>0.454393</v>
       </c>
       <c r="O6">
-        <v>0.08172695810995302</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="P6">
-        <v>0.08172695810995302</v>
+        <v>0.02941863695476679</v>
       </c>
       <c r="Q6">
-        <v>0.1750771865588995</v>
+        <v>0.004846454761777777</v>
       </c>
       <c r="R6">
-        <v>0.1750771865588995</v>
+        <v>0.043618092856</v>
       </c>
       <c r="S6">
-        <v>0.04028491224684853</v>
+        <v>0.0007773533763569424</v>
       </c>
       <c r="T6">
-        <v>0.04028491224684853</v>
+        <v>0.0007773533763569424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.459958101400293</v>
+        <v>0.03199733333333333</v>
       </c>
       <c r="H7">
-        <v>0.459958101400293</v>
+        <v>0.09599199999999999</v>
       </c>
       <c r="I7">
-        <v>0.4929207348284076</v>
+        <v>0.02642384069500492</v>
       </c>
       <c r="J7">
-        <v>0.4929207348284076</v>
+        <v>0.02642384069500493</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.61194720363087</v>
+        <v>3.257809</v>
       </c>
       <c r="N7">
-        <v>0.61194720363087</v>
+        <v>9.773427</v>
       </c>
       <c r="O7">
-        <v>0.1313917215267877</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="P7">
-        <v>0.1313917215267877</v>
+        <v>0.6327582086804056</v>
       </c>
       <c r="Q7">
-        <v>0.2814700739392734</v>
+        <v>0.1042412005093333</v>
       </c>
       <c r="R7">
-        <v>0.2814700739392734</v>
+        <v>0.9381708045839999</v>
       </c>
       <c r="S7">
-        <v>0.06476570392535369</v>
+        <v>0.01671990210462772</v>
       </c>
       <c r="T7">
-        <v>0.06476570392535369</v>
+        <v>0.01671990210462772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.459958101400293</v>
+        <v>0.5432236666666667</v>
       </c>
       <c r="H8">
-        <v>0.459958101400293</v>
+        <v>1.629671</v>
       </c>
       <c r="I8">
-        <v>0.4929207348284076</v>
+        <v>0.4486016218983808</v>
       </c>
       <c r="J8">
-        <v>0.4929207348284076</v>
+        <v>0.4486016218983808</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.498027648015566</v>
+        <v>0.02516733333333333</v>
       </c>
       <c r="N8">
-        <v>0.498027648015566</v>
+        <v>0.075502</v>
       </c>
       <c r="O8">
-        <v>0.1069319536921589</v>
+        <v>0.004888204543993421</v>
       </c>
       <c r="P8">
-        <v>0.1069319536921589</v>
+        <v>0.00488820454399342</v>
       </c>
       <c r="Q8">
-        <v>0.2290718514260931</v>
+        <v>0.01367149109355555</v>
       </c>
       <c r="R8">
-        <v>0.2290718514260931</v>
+        <v>0.123043419842</v>
       </c>
       <c r="S8">
-        <v>0.0527089771905762</v>
+        <v>0.002192856486606483</v>
       </c>
       <c r="T8">
-        <v>0.0527089771905762</v>
+        <v>0.002192856486606483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5432236666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.629671</v>
+      </c>
+      <c r="I9">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="J9">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3823143333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.146943</v>
+      </c>
+      <c r="O9">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="P9">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="Q9">
+        <v>0.2076821939725556</v>
+      </c>
+      <c r="R9">
+        <v>1.869139745753</v>
+      </c>
+      <c r="S9">
+        <v>0.03331145396569495</v>
+      </c>
+      <c r="T9">
+        <v>0.03331145396569495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5432236666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.629671</v>
+      </c>
+      <c r="I10">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="J10">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7297406666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.189222</v>
+      </c>
+      <c r="O10">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="P10">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="Q10">
+        <v>0.3964124006624445</v>
+      </c>
+      <c r="R10">
+        <v>3.567711605962</v>
+      </c>
+      <c r="S10">
+        <v>0.06358307943261926</v>
+      </c>
+      <c r="T10">
+        <v>0.06358307943261925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5432236666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.629671</v>
+      </c>
+      <c r="I11">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="J11">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6020886666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.806266</v>
+      </c>
+      <c r="O11">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="P11">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="Q11">
+        <v>0.327068813165111</v>
+      </c>
+      <c r="R11">
+        <v>2.943619318486</v>
+      </c>
+      <c r="S11">
+        <v>0.05246062507796808</v>
+      </c>
+      <c r="T11">
+        <v>0.05246062507796808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.459958101400293</v>
-      </c>
-      <c r="H9">
-        <v>0.459958101400293</v>
-      </c>
-      <c r="I9">
-        <v>0.4929207348284076</v>
-      </c>
-      <c r="J9">
-        <v>0.4929207348284076</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.16681377418538</v>
-      </c>
-      <c r="N9">
-        <v>3.16681377418538</v>
-      </c>
-      <c r="O9">
-        <v>0.6799493666711005</v>
-      </c>
-      <c r="P9">
-        <v>0.6799493666711005</v>
-      </c>
-      <c r="Q9">
-        <v>1.456601651062604</v>
-      </c>
-      <c r="R9">
-        <v>1.456601651062604</v>
-      </c>
-      <c r="S9">
-        <v>0.3351611414656292</v>
-      </c>
-      <c r="T9">
-        <v>0.3351611414656292</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5432236666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.629671</v>
+      </c>
+      <c r="I12">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="J12">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1514643333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.454393</v>
+      </c>
+      <c r="O12">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="P12">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="Q12">
+        <v>0.08227901052255555</v>
+      </c>
+      <c r="R12">
+        <v>0.7405110947029999</v>
+      </c>
+      <c r="S12">
+        <v>0.01319724825194802</v>
+      </c>
+      <c r="T12">
+        <v>0.01319724825194802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5432236666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.629671</v>
+      </c>
+      <c r="I13">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="J13">
+        <v>0.4486016218983808</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.257809</v>
+      </c>
+      <c r="N13">
+        <v>9.773427</v>
+      </c>
+      <c r="O13">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="P13">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="Q13">
+        <v>1.769718950279667</v>
+      </c>
+      <c r="R13">
+        <v>15.927470552517</v>
+      </c>
+      <c r="S13">
+        <v>0.283856358683544</v>
+      </c>
+      <c r="T13">
+        <v>0.283856358683544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.538929</v>
+      </c>
+      <c r="H14">
+        <v>1.616787</v>
+      </c>
+      <c r="I14">
+        <v>0.4450550267288412</v>
+      </c>
+      <c r="J14">
+        <v>0.4450550267288413</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02516733333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.075502</v>
+      </c>
+      <c r="O14">
+        <v>0.004888204543993421</v>
+      </c>
+      <c r="P14">
+        <v>0.00488820454399342</v>
+      </c>
+      <c r="Q14">
+        <v>0.013563405786</v>
+      </c>
+      <c r="R14">
+        <v>0.122070652074</v>
+      </c>
+      <c r="S14">
+        <v>0.002175520003983035</v>
+      </c>
+      <c r="T14">
+        <v>0.002175520003983035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.538929</v>
+      </c>
+      <c r="H15">
+        <v>1.616787</v>
+      </c>
+      <c r="I15">
+        <v>0.4450550267288412</v>
+      </c>
+      <c r="J15">
+        <v>0.4450550267288413</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3823143333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.146943</v>
+      </c>
+      <c r="O15">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="P15">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="Q15">
+        <v>0.206040281349</v>
+      </c>
+      <c r="R15">
+        <v>1.854362532141</v>
+      </c>
+      <c r="S15">
+        <v>0.03304809726799706</v>
+      </c>
+      <c r="T15">
+        <v>0.03304809726799707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.538929</v>
+      </c>
+      <c r="H16">
+        <v>1.616787</v>
+      </c>
+      <c r="I16">
+        <v>0.4450550267288412</v>
+      </c>
+      <c r="J16">
+        <v>0.4450550267288413</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7297406666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.189222</v>
+      </c>
+      <c r="O16">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="P16">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="Q16">
+        <v>0.393278407746</v>
+      </c>
+      <c r="R16">
+        <v>3.539505669714</v>
+      </c>
+      <c r="S16">
+        <v>0.06308039858758374</v>
+      </c>
+      <c r="T16">
+        <v>0.06308039858758374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.538929</v>
+      </c>
+      <c r="H17">
+        <v>1.616787</v>
+      </c>
+      <c r="I17">
+        <v>0.4450550267288412</v>
+      </c>
+      <c r="J17">
+        <v>0.4450550267288413</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6020886666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.806266</v>
+      </c>
+      <c r="O17">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="P17">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="Q17">
+        <v>0.324483043038</v>
+      </c>
+      <c r="R17">
+        <v>2.920347387342</v>
+      </c>
+      <c r="S17">
+        <v>0.05204587713589601</v>
+      </c>
+      <c r="T17">
+        <v>0.05204587713589601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.538929</v>
+      </c>
+      <c r="H18">
+        <v>1.616787</v>
+      </c>
+      <c r="I18">
+        <v>0.4450550267288412</v>
+      </c>
+      <c r="J18">
+        <v>0.4450550267288413</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1514643333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.454393</v>
+      </c>
+      <c r="O18">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="P18">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="Q18">
+        <v>0.08162852169900001</v>
+      </c>
+      <c r="R18">
+        <v>0.734656695291</v>
+      </c>
+      <c r="S18">
+        <v>0.01309291225622981</v>
+      </c>
+      <c r="T18">
+        <v>0.01309291225622981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.538929</v>
+      </c>
+      <c r="H19">
+        <v>1.616787</v>
+      </c>
+      <c r="I19">
+        <v>0.4450550267288412</v>
+      </c>
+      <c r="J19">
+        <v>0.4450550267288413</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.257809</v>
+      </c>
+      <c r="N19">
+        <v>9.773427</v>
+      </c>
+      <c r="O19">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="P19">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="Q19">
+        <v>1.755727746561</v>
+      </c>
+      <c r="R19">
+        <v>15.801549719049</v>
+      </c>
+      <c r="S19">
+        <v>0.2816122214771516</v>
+      </c>
+      <c r="T19">
+        <v>0.2816122214771516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.17624</v>
+      </c>
+      <c r="I20">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="J20">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02516733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.075502</v>
+      </c>
+      <c r="O20">
+        <v>0.004888204543993421</v>
+      </c>
+      <c r="P20">
+        <v>0.00488820454399342</v>
+      </c>
+      <c r="Q20">
+        <v>0.001478496942222222</v>
+      </c>
+      <c r="R20">
+        <v>0.01330647248</v>
+      </c>
+      <c r="S20">
+        <v>0.0002371454282487243</v>
+      </c>
+      <c r="T20">
+        <v>0.0002371454282487242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.17624</v>
+      </c>
+      <c r="I21">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="J21">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3823143333333334</v>
+      </c>
+      <c r="N21">
+        <v>1.146943</v>
+      </c>
+      <c r="O21">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="P21">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="Q21">
+        <v>0.02245969270222222</v>
+      </c>
+      <c r="R21">
+        <v>0.20213723432</v>
+      </c>
+      <c r="S21">
+        <v>0.003602451443827667</v>
+      </c>
+      <c r="T21">
+        <v>0.003602451443827667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.17624</v>
+      </c>
+      <c r="I22">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="J22">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7297406666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.189222</v>
+      </c>
+      <c r="O22">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="P22">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="Q22">
+        <v>0.04286983169777778</v>
+      </c>
+      <c r="R22">
+        <v>0.38582848528</v>
+      </c>
+      <c r="S22">
+        <v>0.006876162071488552</v>
+      </c>
+      <c r="T22">
+        <v>0.00687616207148855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.17624</v>
+      </c>
+      <c r="I23">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="J23">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6020886666666666</v>
+      </c>
+      <c r="N23">
+        <v>1.806266</v>
+      </c>
+      <c r="O23">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="P23">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="Q23">
+        <v>0.03537070220444444</v>
+      </c>
+      <c r="R23">
+        <v>0.31833631984</v>
+      </c>
+      <c r="S23">
+        <v>0.005673329502544437</v>
+      </c>
+      <c r="T23">
+        <v>0.005673329502544437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.17624</v>
+      </c>
+      <c r="I24">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="J24">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1514643333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.454393</v>
+      </c>
+      <c r="O24">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="P24">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="Q24">
+        <v>0.008898024702222222</v>
+      </c>
+      <c r="R24">
+        <v>0.08008222232000001</v>
+      </c>
+      <c r="S24">
+        <v>0.001427210174276477</v>
+      </c>
+      <c r="T24">
+        <v>0.001427210174276477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.05874666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.17624</v>
+      </c>
+      <c r="I25">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="J25">
+        <v>0.04851381036010989</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.257809</v>
+      </c>
+      <c r="N25">
+        <v>9.773427</v>
+      </c>
+      <c r="O25">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="P25">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="Q25">
+        <v>0.1913854193866667</v>
+      </c>
+      <c r="R25">
+        <v>1.72246877448</v>
+      </c>
+      <c r="S25">
+        <v>0.03069751173972404</v>
+      </c>
+      <c r="T25">
+        <v>0.03069751173972404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.03803</v>
+      </c>
+      <c r="H26">
+        <v>0.11409</v>
+      </c>
+      <c r="I26">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="J26">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02516733333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.075502</v>
+      </c>
+      <c r="O26">
+        <v>0.004888204543993421</v>
+      </c>
+      <c r="P26">
+        <v>0.00488820454399342</v>
+      </c>
+      <c r="Q26">
+        <v>0.0009571136866666667</v>
+      </c>
+      <c r="R26">
+        <v>0.008614023179999999</v>
+      </c>
+      <c r="S26">
+        <v>0.0001535174870000962</v>
+      </c>
+      <c r="T26">
+        <v>0.0001535174870000961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.03803</v>
+      </c>
+      <c r="H27">
+        <v>0.11409</v>
+      </c>
+      <c r="I27">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="J27">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.3823143333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.146943</v>
+      </c>
+      <c r="O27">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="P27">
+        <v>0.07425620492571648</v>
+      </c>
+      <c r="Q27">
+        <v>0.01453941409666667</v>
+      </c>
+      <c r="R27">
+        <v>0.13085472687</v>
+      </c>
+      <c r="S27">
+        <v>0.002332068118624027</v>
+      </c>
+      <c r="T27">
+        <v>0.002332068118624027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.03803</v>
+      </c>
+      <c r="H28">
+        <v>0.11409</v>
+      </c>
+      <c r="I28">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="J28">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.7297406666666667</v>
+      </c>
+      <c r="N28">
+        <v>2.189222</v>
+      </c>
+      <c r="O28">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="P28">
+        <v>0.1417361782232307</v>
+      </c>
+      <c r="Q28">
+        <v>0.02775203755333333</v>
+      </c>
+      <c r="R28">
+        <v>0.24976833798</v>
+      </c>
+      <c r="S28">
+        <v>0.004451323937449664</v>
+      </c>
+      <c r="T28">
+        <v>0.004451323937449663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.03803</v>
+      </c>
+      <c r="H29">
+        <v>0.11409</v>
+      </c>
+      <c r="I29">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="J29">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.6020886666666666</v>
+      </c>
+      <c r="N29">
+        <v>1.806266</v>
+      </c>
+      <c r="O29">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="P29">
+        <v>0.1169425666718871</v>
+      </c>
+      <c r="Q29">
+        <v>0.02289743199333333</v>
+      </c>
+      <c r="R29">
+        <v>0.20607688794</v>
+      </c>
+      <c r="S29">
+        <v>0.003672663203275617</v>
+      </c>
+      <c r="T29">
+        <v>0.003672663203275617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.03803</v>
+      </c>
+      <c r="H30">
+        <v>0.11409</v>
+      </c>
+      <c r="I30">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="J30">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1514643333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.454393</v>
+      </c>
+      <c r="O30">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="P30">
+        <v>0.02941863695476679</v>
+      </c>
+      <c r="Q30">
+        <v>0.005760188596666667</v>
+      </c>
+      <c r="R30">
+        <v>0.05184169737</v>
+      </c>
+      <c r="S30">
+        <v>0.0009239128959555335</v>
+      </c>
+      <c r="T30">
+        <v>0.0009239128959555334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.03803</v>
+      </c>
+      <c r="H31">
+        <v>0.11409</v>
+      </c>
+      <c r="I31">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="J31">
+        <v>0.03140570031766306</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.257809</v>
+      </c>
+      <c r="N31">
+        <v>9.773427</v>
+      </c>
+      <c r="O31">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="P31">
+        <v>0.6327582086804056</v>
+      </c>
+      <c r="Q31">
+        <v>0.12389447627</v>
+      </c>
+      <c r="R31">
+        <v>1.11505028643</v>
+      </c>
+      <c r="S31">
+        <v>0.01987221467535812</v>
+      </c>
+      <c r="T31">
+        <v>0.01987221467535812</v>
       </c>
     </row>
   </sheetData>
